--- a/resources/meetResultsBoys2025.xlsx
+++ b/resources/meetResultsBoys2025.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="light-up-the-nightBoysVarsity" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fightertown-xc-invitationalBoysJV" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fightertown-xc-invitationalBoysVarsity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bcc-round-up-new-bern-all-teamsBoysVarsity" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +587,36 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>16:19.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bcc-round-up-new-bern-all-teamsBoysVarsity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bcc-round-up-new-bern-all-teams</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Boys</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Varsity</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:00.00</t>
         </is>
       </c>
     </row>
@@ -6149,25 +6180,4322 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Zach Guerrero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:27.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>987.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jude Keller</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:33.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>993.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Michael Justice</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:40.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1000.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Atticus Brinson</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:43.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1003.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Matthew Barbabella</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:44.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1004.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cameron Bitts</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:54.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1014.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cole Weimer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:14.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1034.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Judah Spellman</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:44.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1064.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Maddox Trossen</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:52.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1072.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Conner Ford</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:54.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1074.29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Riley Treacy</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18:01.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1081.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Steven Pereda</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18:09.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1089.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tayquan Alston</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>18:16.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1096.42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jake Hallett</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>18:21.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1101.14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gil Trimble</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>18:23.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1103.68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Troy Wright</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>18:24.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1104.76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Miller Roberts</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>18:28.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1108.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Alex Penny</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>East Carteret</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>18:36.94</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1116.94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Reid Carey</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>18:39.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1119.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Levi Wright</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>18:42.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1122.69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tanner Carawan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>18:48.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1128.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Lawrence Cole</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>18:49.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1129.34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Asa Webb</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>18:50.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1130.31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Evan Quigley</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>18:50.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1130.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Matthew Curran</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>18:54.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1134.94</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Gavin Reynolds</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>18:55.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1135.68</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Daniel Juarez</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:55.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1135.93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tyler Wilkinson</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:56.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1136.27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aiden Tant</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>18:57.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1137.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>David Lang</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19:05.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1145.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>William Wulder III</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19:06.44</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1146.44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Francisco Herrera</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>19:12.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1152.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Brayden Julian</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19:13.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1153.28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Blake Tiensvold</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:13.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1153.69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Noah Keller</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19:14.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1154.44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Alex Montgomery</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19:19.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1159.19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>River Cox</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:19.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1159.71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Kole Burkett</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19:20.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1160.08</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Antonio Ross</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19:24.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1164.17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Aiden Young</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>19:25.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1165.07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dylan Kriebel</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>19:26.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1166.78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Tanner Heath</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>19:28.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1168.67</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Edgar Muro</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>19:29.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1169.13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Jack Rouse</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>19:30.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1170.61</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Isaiah Statley</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>19:36.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1176.73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Coby Alligood</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>19:38.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1178.15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Matthew Earle</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>19:40.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1180.78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Luis Gandarilla-Gomez</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>19:41.66</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1181.66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Caleb Gillen</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>19:44.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1184.02</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Lawson Holland</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>19:45.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1185.26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yael Ramirez-Rico</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>19:47.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1187.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tucker Carey</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>19:48.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1188.26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Carter Ewell</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>19:57.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1197.25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Jonas Mercer</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>20:06.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1206.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Colin Jones</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>20:08.35</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1208.35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mason Foreman</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>20:10.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1210.04</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Brayden Berry</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>20:13.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1213.59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Reid Smith</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>20:14.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1214.64</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>David Wolf</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>20:15.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1215.84</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Griffith Brimhall</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>20:16.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1216.06</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Gabriel Flores</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>20:16.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1216.31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Wesley Vernon</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>20:16.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1216.56</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Steven Mummaw</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>20:18.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1218.55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Jaymes Jimenez</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>20:27.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1227.09</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Evan Jabs</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>20:27.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1227.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rowan Vitak</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>20:27.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1227.94</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Grayson Ford</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>20:28.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Brant Atkinson</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>20:31.56</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1231.56</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Axle Maxwell</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Onslow Early College High School</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>20:48.59</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1248.59</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rudy Flores</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>20:51.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1251.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Noah Rempel</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>20:53.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1253.52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Harrison Scheuter</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>20:54.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1254.45</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Gunner Johnson</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>20:58.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1258.87</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>21:08.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1268.13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Kemari Alston</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>21:08.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1268.31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Silas Rigsbee</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>21:12.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1272.51</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Jax Dennis</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>21:14.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1274.34</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Max Smith</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>21:21.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1281.48</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Connor Hill</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>21:22.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1282.88</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Adam Garcia</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>21:23.08</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1283.08</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Elber Lopez Paz</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>21:25.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1285.68</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Gabriel Camacho</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>21:28.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1288.85</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Roy Archer</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>21:29.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1289.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Kavion Jones</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>21:29.93</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1289.93</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>David Kang</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>21:37.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1297.19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jakob Mueller</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>21:44.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1304.47</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tucker  Durling</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>21:59.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1319.88</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Badar Hizan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>22:03.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1323.32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Noah Windley</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>22:14.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1334.94</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Seth Collier</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>22:15.41</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1335.41</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Jordan Durfee</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Onslow Early College High School</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>22:21.26</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1341.26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Grayson Nesbit</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>22:24.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1344.95</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bradley Birchfield</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>22:25.53</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1345.53</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Quinn DeSelms</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Onslow Early College High School</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>22:28.80</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1348.8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Luke Foster</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>22:29.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1349.17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Alex James</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>22:29.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1349.97</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Christopher Luis Carbajal</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>22:32.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1352.01</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Bryson Dilday</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>22:36.15</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1356.15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ian Cranford</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>22:52.29</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1372.29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ralph Rains</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>23:08.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1388.12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Nolan Mattison</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>23:13.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1393.79</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Aiden Lawson</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>23:20.90</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1400.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Brayden Whitehair</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>23:30.44</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1410.44</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Landon Marx</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>23:30.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1410.62</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Wesley Stowe</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>23:34.20</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1414.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Chris Lewis</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>23:38.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1418.16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Shemar Latimore</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>23:49.66</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1429.66</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Remi Richards</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>24:04.71</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1444.71</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Gerando Salis-ASUILAR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>24:13.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1453.05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Michael Bundle</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>24:17.79</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1457.79</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Graham Goodwin</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>24:48.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1488.28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Liam Cetinkaya</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Onslow Early College High School</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>24:56.25</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1496.25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Egan Hine</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>25:01.32</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1501.32</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Isaiah Rodriguez</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>25:05.03</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1505.03</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Jayson  Glover</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>25:51.80</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1551.8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Kolden Mceuen</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>26:00.59</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1560.59</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Evan  Whittaker</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>26:08.64</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1568.64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Tronyale Daniel</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>26:24.94</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1584.94</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Luke Staroslsky</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>26:36.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1596.38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Marion Rains</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>27:40.67</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1660.67</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Nathaniel Combs</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>29:14.20</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1754.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tyler Doublet</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>30:55.12</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1855.12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Kevon Avent</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>34:06.23</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2046.23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Hunter Peppers</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>34:06.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2046.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Athlete</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zach Guerrero</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Adam Adamski</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16:27.65</t>
+          <t>16:18.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6176,7 +10504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>987.65</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3">
@@ -6188,7 +10516,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jude Keller</t>
+          <t>Gray Sweatman</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6198,12 +10526,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16:33.29</t>
+          <t>16:24.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6212,7 +10540,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>993.29</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4">
@@ -6224,22 +10552,22 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Michael Justice</t>
+          <t>Matthew Winstead</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16:40.61</t>
+          <t>16:43.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6248,7 +10576,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1000.61</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5">
@@ -6260,7 +10588,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atticus Brinson</t>
+          <t>Jackson Grudzinskas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6270,12 +10598,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:43.13</t>
+          <t>17:00.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6284,7 +10612,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1003.13</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6">
@@ -6296,7 +10624,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matthew Barbabella</t>
+          <t>Jackson Wood</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6306,12 +10634,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16:44.52</t>
+          <t>17:01.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6320,7 +10648,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1004.52</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7">
@@ -6332,22 +10660,22 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cameron Bitts</t>
+          <t>Nakevian Atkinson</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16:54.01</t>
+          <t>17:18.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6356,7 +10684,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1014.01</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8">
@@ -6368,22 +10696,22 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cole Weimer</t>
+          <t>Helms Kulas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:14.65</t>
+          <t>17:30.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6392,7 +10720,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1034.65</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="9">
@@ -6404,22 +10732,22 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Judah Spellman</t>
+          <t>Jake Hallett</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>17:44.95</t>
+          <t>17:41.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6428,7 +10756,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1064.95</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="10">
@@ -6440,7 +10768,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Maddox Trossen</t>
+          <t>Oliver Canady</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6450,12 +10778,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17:52.90</t>
+          <t>17:50.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6464,7 +10792,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1072.9</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11">
@@ -6476,7 +10804,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conner Ford</t>
+          <t>Jonathan Mocek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6486,12 +10814,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wilson Christian Academy</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17:54.29</t>
+          <t>17:56.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6500,7 +10828,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1074.29</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="12">
@@ -6512,7 +10840,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Riley Treacy</t>
+          <t>Henry Rhodes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6522,12 +10850,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18:01.07</t>
+          <t>18:00.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6536,7 +10864,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1081.07</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13">
@@ -6548,7 +10876,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Steven Pereda</t>
+          <t>Matthew Curran</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6558,12 +10886,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18:09.22</t>
+          <t>18:10.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6572,7 +10900,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1089.22</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="14">
@@ -6584,22 +10912,22 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tayquan Alston</t>
+          <t>Jamarion Henderson</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rocky Mount High School</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18:16.42</t>
+          <t>18:17.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -6608,7 +10936,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1096.42</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15">
@@ -6620,7 +10948,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jake Hallett</t>
+          <t>Matthew Earle</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6635,7 +10963,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18:21.14</t>
+          <t>18:19.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -6644,7 +10972,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1101.14</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16">
@@ -6656,7 +10984,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gil Trimble</t>
+          <t>Tyler Wilkinson</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6666,12 +10994,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18:23.68</t>
+          <t>18:20.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -6680,7 +11008,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1103.68</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17">
@@ -6692,22 +11020,22 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Troy Wright</t>
+          <t>Francisco Herrera</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18:24.76</t>
+          <t>18:22.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -6716,7 +11044,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1104.76</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="18">
@@ -6728,7 +11056,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Miller Roberts</t>
+          <t>Ethan Martin</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6738,12 +11066,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18:28.70</t>
+          <t>18:33.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -6752,7 +11080,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1108.7</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="19">
@@ -6764,27 +11092,31 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alex Penny</t>
+          <t>Reece Zachewics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>East Carteret</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18:36.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>18:33.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>1116.94</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20">
@@ -6796,31 +11128,31 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Reid Carey</t>
+          <t>Aiden Osburn</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18:39.05</t>
+          <t>18:37.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1119.05</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="21">
@@ -6832,31 +11164,23 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Levi Wright</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>Landen Stalker</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18:42.69</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>18:37.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1122.69</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="22">
@@ -6868,7 +11192,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tanner Carawan</t>
+          <t>Blake Tiensvold</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6878,12 +11202,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18:48.46</t>
+          <t>18:45.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -6892,7 +11216,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1128.46</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="23">
@@ -6904,22 +11228,22 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lawrence Cole</t>
+          <t>Jude Sawyer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18:49.34</t>
+          <t>18:56.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -6928,7 +11252,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1129.34</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24">
@@ -6940,22 +11264,22 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Asa Webb</t>
+          <t>Gavin Reynolds</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18:50.31</t>
+          <t>18:56.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6964,7 +11288,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1130.31</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="25">
@@ -6976,22 +11300,22 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Evan Quigley</t>
+          <t>Evan Jabs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>18:50.60</t>
+          <t>19:12.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -7000,7 +11324,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1130.6</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="26">
@@ -7012,22 +11336,22 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Matthew Curran</t>
+          <t>David Wolf</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18:54.94</t>
+          <t>19:12.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -7036,7 +11360,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1134.94</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="27">
@@ -7048,12 +11372,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gavin Reynolds</t>
+          <t>Jonas Mercer</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7063,7 +11387,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>18:55.68</t>
+          <t>19:18.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -7072,7 +11396,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1135.68</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="28">
@@ -7084,31 +11408,27 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Daniel Juarez</t>
+          <t>Carson Anderson</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Heide Trask</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18:55.93</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>19:19.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>1135.93</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29">
@@ -7120,7 +11440,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tyler Wilkinson</t>
+          <t>Braxton Andrews</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7130,21 +11450,21 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>18:56.27</t>
+          <t>19:30.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1136.27</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="30">
@@ -7156,31 +11476,27 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aiden Tant</t>
+          <t>Garret Matthews</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wilson Christian Academy</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>18:57.01</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>19:32.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1137.01</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="31">
@@ -7192,31 +11508,31 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>David Lang</t>
+          <t>Rudy Flores</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>19:05.19</t>
+          <t>19:36.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1145.19</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32">
@@ -7228,23 +11544,31 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>William Wulder III</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Juelez Butts</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Unattached</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>19:06.44</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>19:43.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>1146.44</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="33">
@@ -7256,31 +11580,31 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Francisco Herrera</t>
+          <t>Griffith Brimhall</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>19:12.56</t>
+          <t>19:51.00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1152.56</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="34">
@@ -7292,31 +11616,27 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brayden Julian</t>
+          <t>Gabriel Gonzalez</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>19:13.28</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>19:58.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>1153.28</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="35">
@@ -7328,31 +11648,31 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Blake Tiensvold</t>
+          <t>Drew Thomas</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>19:13.69</t>
+          <t>19:58.00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1153.69</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="36">
@@ -7364,7 +11684,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Noah Keller</t>
+          <t>Jonathan Moss</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7374,21 +11694,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>19:14.44</t>
+          <t>20:01.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1154.44</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="37">
@@ -7400,31 +11720,27 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alex Montgomery</t>
+          <t>Callan Higginson</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>19:19.19</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>20:13.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1159.19</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="38">
@@ -7436,31 +11752,31 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>River Cox</t>
+          <t>Issac Callis</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>19:19.71</t>
+          <t>20:22.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1159.71</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="39">
@@ -7472,31 +11788,31 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kole Burkett</t>
+          <t>Max Smith</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>19:20.08</t>
+          <t>20:23.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1160.08</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="40">
@@ -7508,7 +11824,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Antonio Ross</t>
+          <t>Devin Streeter</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7518,21 +11834,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Richlands</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19:24.17</t>
+          <t>20:24.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1164.17</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="41">
@@ -7544,7 +11860,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aiden Young</t>
+          <t>Crawford Thomas</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7554,21 +11870,21 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>19:25.07</t>
+          <t>20:24.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1165.07</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="42">
@@ -7580,31 +11896,31 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dylan Kriebel</t>
+          <t>Noah Windley</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>19:26.78</t>
+          <t>20:25.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1166.78</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="43">
@@ -7616,31 +11932,31 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tanner Heath</t>
+          <t>Ian Cranford</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>19:28.67</t>
+          <t>20:28.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1168.67</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="44">
@@ -7652,31 +11968,31 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Edgar Muro</t>
+          <t>Roy Archer</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>19:29.13</t>
+          <t>20:38.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1169.13</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="45">
@@ -7688,7 +12004,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jack Rouse</t>
+          <t>Jacob Campos</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7698,21 +12014,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>19:30.61</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>20:39.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1170.61</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="46">
@@ -7724,7 +12036,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Isaiah Statley</t>
+          <t>Jacob Breazeale</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7734,21 +12046,21 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Heide Trask</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>19:36.73</t>
+          <t>20:41.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1176.73</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="47">
@@ -7760,31 +12072,27 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Coby Alligood</t>
+          <t>Brayden Whitehair</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>19:38.15</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
+          <t>20:42.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1178.15</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="48">
@@ -7796,31 +12104,23 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Matthew Earle</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>Seth Collier</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>19:40.78</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+          <t>20:42.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>1180.78</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="49">
@@ -7832,27 +12132,23 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Luis Gandarilla-Gomez</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>J Padron</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>19:41.66</t>
+          <t>20:43.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>1181.66</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="50">
@@ -7864,7 +12160,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Caleb Gillen</t>
+          <t>Noah Hanna</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7874,21 +12170,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Wilson Christian Academy</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>19:44.02</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+          <t>21:17.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>1184.02</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="51">
@@ -7900,31 +12192,31 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lawson Holland</t>
+          <t>Lewis Benje</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>19:45.26</t>
+          <t>21:20.00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1185.26</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="52">
@@ -7936,31 +12228,27 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yael Ramirez-Rico</t>
+          <t>Nolan Mattison</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>19:47.60</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+          <t>21:30.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>1187.6</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="53">
@@ -7972,31 +12260,27 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tucker Carey</t>
+          <t>Ian Jones</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>19:48.26</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
+          <t>21:32.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>1188.26</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="54">
@@ -8008,7 +12292,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carter Ewell</t>
+          <t>Zavion Folkes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -8018,21 +12302,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>19:57.25</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>21:32.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>1197.25</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="55">
@@ -8044,31 +12324,27 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jonas Mercer</t>
+          <t>Zachary Orman</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>20:06.70</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>21:37.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>1206.7</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="56">
@@ -8080,27 +12356,27 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Colin Jones</t>
+          <t>Reuben Alexander</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>20:08.35</t>
+          <t>21:38.00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>1208.35</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="57">
@@ -8112,31 +12388,27 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mason Foreman</t>
+          <t>Gunner Johnson</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>20:10.04</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+          <t>21:42.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>1210.04</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="58">
@@ -8148,31 +12420,27 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brayden Berry</t>
+          <t>Evan Torrent</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>20:13.59</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>21:43.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>1213.59</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="59">
@@ -8184,7 +12452,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Reid Smith</t>
+          <t>Jenson Tyler Alley</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8194,21 +12462,21 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>20:14.64</t>
+          <t>21:47.00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1214.64</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="60">
@@ -8220,31 +12488,27 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>David Wolf</t>
+          <t>Kolden Mceuen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>20:15.84</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>21:52.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>1215.84</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="61">
@@ -8256,12 +12520,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Griffith Brimhall</t>
+          <t>Remi Richards</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -8271,16 +12535,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>20:16.06</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
+          <t>21:55.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>1216.06</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="62">
@@ -8292,7 +12552,7 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gabriel Flores</t>
+          <t>Jacye Carden</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8302,21 +12562,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>20:16.31</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
+          <t>22:02.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>1216.31</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="63">
@@ -8328,31 +12584,27 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wesley Vernon</t>
+          <t>Jamie Slagle</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>20:16.56</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>22:09.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>1216.56</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="64">
@@ -8364,7 +12616,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Steven Mummaw</t>
+          <t>Bryson Dilday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8374,21 +12626,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>20:18.55</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
+          <t>22:18.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>1218.55</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="65">
@@ -8400,31 +12648,27 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jaymes Jimenez</t>
+          <t>Kearney Murphy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>20:27.09</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>22:25.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>1227.09</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="66">
@@ -8436,31 +12680,23 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Evan Jabs</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>H Smith</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>20:27.40</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
+          <t>22:27.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>1227.4</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="67">
@@ -8472,31 +12708,27 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rowan Vitak</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>F Stone</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>20:27.94</t>
+          <t>22:35.00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1227.94</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="68">
@@ -8508,7 +12740,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Grayson Ford</t>
+          <t>Jamison Knowles</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8518,21 +12750,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Wilson Christian Academy</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>20:28.20</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
+          <t>22:41.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>1228.2</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="69">
@@ -8544,27 +12772,27 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brant Atkinson</t>
+          <t>Noah Marrquin</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>20:31.56</t>
+          <t>22:42.00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1231.56</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="70">
@@ -8576,27 +12804,27 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Axle Maxwell</t>
+          <t>Bradley Ross</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Onslow Early College High School</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>20:48.59</t>
+          <t>22:48.00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1248.59</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="71">
@@ -8608,31 +12836,27 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Rudy Flores</t>
+          <t>Anderson Bagley</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>20:51.10</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
+          <t>23:19.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>1251.1</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="72">
@@ -8644,31 +12868,27 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Noah Rempel</t>
+          <t>Cayton Boucher</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Living Water Christian School</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>20:53.52</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
+          <t>23:21.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1253.52</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="73">
@@ -8680,7 +12900,7 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Harrison Scheuter</t>
+          <t>Tyler Preston</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8690,21 +12910,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>20:54.45</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+          <t>23:32.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>1254.45</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="74">
@@ -8716,31 +12932,27 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gunner Johnson</t>
+          <t>Henry Cooper Worthington</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>20:58.87</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
+          <t>23:51.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1258.87</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="75">
@@ -8752,31 +12964,27 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Landon Norman</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>21:08.13</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
+          <t>24:47.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>1268.13</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="76">
@@ -8788,31 +12996,27 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kemari Alston</t>
+          <t>Bryan Briseno</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rocky Mount High School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>21:08.31</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
+          <t>25:01.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>1268.31</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="77">
@@ -8824,31 +13028,27 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Silas Rigsbee</t>
+          <t>Cayden Rouse</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>21:12.51</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>25:07.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>1272.51</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="78">
@@ -8860,7 +13060,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jax Dennis</t>
+          <t>Cameron Jones</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -8870,21 +13070,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>21:14.34</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
+          <t>25:13.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>1274.34</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="79">
@@ -8896,12 +13092,12 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Max Smith</t>
+          <t>Tristen Fridline</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8911,16 +13107,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>21:21.48</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>25:20.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>1281.48</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="80">
@@ -8932,31 +13124,27 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Connor Hill</t>
+          <t>David Cotto</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>21:22.88</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>25:23.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>1282.88</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="81">
@@ -8968,27 +13156,27 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Adam Garcia</t>
+          <t>Lindon Cox</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>21:23.08</t>
+          <t>26:02.00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>1283.08</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="82">
@@ -9000,31 +13188,27 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Elber Lopez Paz</t>
+          <t>William Wooten</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Heide Trask</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>21:25.68</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+          <t>26:35.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>1285.68</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="83">
@@ -9036,27 +13220,27 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gabriel Camacho</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>Chedvinsaki Fevrier</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>21:28.85</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>26:35.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>1288.85</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="84">
@@ -9068,7 +13252,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Roy Archer</t>
+          <t>Ka'liam Tripp</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -9078,21 +13262,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>21:29.30</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
+          <t>27:50.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>1289.3</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="85">
@@ -9104,31 +13284,23 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Kavion Jones</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+          <t>Deshiles Young</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>21:29.93</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
+          <t>28:38.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>1289.93</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="86">
@@ -9140,31 +13312,27 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>David Kang</t>
+          <t>Jiovanni Craft</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Rocky Mount High School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>21:37.19</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+          <t>28:50.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>1297.19</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="87">
@@ -9176,31 +13344,27 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jakob Mueller</t>
+          <t>Eddie Soriano</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>21:44.47</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
+          <t>29:37.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>1304.47</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="88">
@@ -9212,1319 +13376,27 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tucker  Durling</t>
+          <t>Grayson Mylton</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Richlands</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>21:59.88</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+          <t>38:31.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>1319.88</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Badar Hizan</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>22:03.32</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>1323.32</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Noah Windley</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>22:14.94</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>1334.94</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Seth Collier</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>22:15.41</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>1335.41</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Jordan Durfee</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Onslow Early College High School</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>22:21.26</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="n">
-        <v>1341.26</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Grayson Nesbit</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Wilson Christian Academy</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>22:24.95</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>1344.95</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Bradley Birchfield</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Havelock</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>22:25.53</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>1345.53</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Quinn DeSelms</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Onslow Early College High School</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>22:28.80</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
-        <v>1348.8</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Luke Foster</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Living Water Christian School</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>22:29.17</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>1349.17</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Alex James</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Living Water Christian School</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>22:29.97</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>1349.97</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Christopher Luis Carbajal</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>22:32.01</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>1352.01</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Bryson Dilday</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>22:36.15</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="n">
-        <v>1356.15</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Ian Cranford</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>White Oak</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>22:52.29</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>1372.29</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Ralph Rains</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Living Water Christian School</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>23:08.12</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>1388.12</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Nolan Mattison</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>White Oak</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>23:13.79</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>1393.79</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Aiden Lawson</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>23:20.90</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="n">
-        <v>1400.9</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Brayden Whitehair</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>White Oak</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>23:30.44</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="n">
-        <v>1410.44</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Landon Marx</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>23:30.62</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>1410.62</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Wesley Stowe</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Terra Ceia Christian School</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>23:34.20</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>1414.2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Chris Lewis</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Wilson Christian Academy</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>23:38.16</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>1418.16</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Shemar Latimore</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Havelock</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>23:49.66</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>1429.66</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Remi Richards</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>24:04.71</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="n">
-        <v>1444.71</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Gerando Salis-ASUILAR</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>24:13.05</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>1453.05</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Michael Bundle</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Richlands</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>24:17.79</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>1457.79</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Graham Goodwin</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>24:48.28</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>1488.28</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Liam Cetinkaya</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Onslow Early College High School</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>24:56.25</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="n">
-        <v>1496.25</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Egan Hine</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>25:01.32</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="n">
-        <v>1501.32</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Isaiah Rodriguez</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Pamlico County</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>25:05.03</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="n">
-        <v>1505.03</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Jayson  Glover</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Richlands</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>25:51.80</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>1551.8</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Kolden Mceuen</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>White Oak</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>26:00.59</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="n">
-        <v>1560.59</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Evan  Whittaker</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Richlands</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>26:08.64</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>1568.64</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Tronyale Daniel</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>26:24.94</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>1584.94</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Luke Staroslsky</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Living Water Christian School</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>26:36.38</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>1596.38</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Marion Rains</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Living Water Christian School</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>27:40.67</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>1660.67</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Nathaniel Combs</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>29:14.20</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>1754.2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Tyler Doublet</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Richlands</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>30:55.12</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>1855.12</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Kevon Avent</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>34:06.23</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="n">
-        <v>2046.23</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Hunter Peppers</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Living Water Christian School</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>34:06.47</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>2046.47</v>
+        <v>2311</v>
       </c>
     </row>
   </sheetData>
